--- a/processing/data/ngonyePlantModels/ccia/flowModels/cciaModels_2016.xlsx
+++ b/processing/data/ngonyePlantModels/ccia/flowModels/cciaModels_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\andy\ngonye-models\processing\data\ngonyePlantModels\ccia\flowModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{3E341BD8-C84C-4A01-B173-F1D224CB193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83F949-54AF-4BDC-9AFE-C16663956CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{513E3DD1-1794-43AD-8BA7-53C7E686329B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="cciaModels_2016" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -299,7 +298,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -445,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +946,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -976,12 +980,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1362,14 +1367,14 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="A30:P30"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="44"/>
+    <col min="7" max="7" width="9.140625" style="43"/>
     <col min="8" max="8" width="9.140625" style="10"/>
     <col min="9" max="12" width="9.140625" style="1"/>
     <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
@@ -1379,112 +1384,112 @@
     <col min="23" max="23" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="40" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:25" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>75</v>
       </c>
       <c r="M1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>843</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>868</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <v>26.4</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="37">
         <v>0.53500000000000003</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="39">
+      <c r="I2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="38">
         <v>3.6699999999999998E-4</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="37">
         <v>9.6100000000000005E-3</v>
       </c>
-      <c r="L2" s="38">
-        <v>0</v>
-      </c>
-      <c r="M2" s="38">
+      <c r="L2" s="37">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37">
         <v>1.01E-2</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="30">
         <f>(F2-E2)/E2</f>
         <v>2.9655990510083038E-2</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="29"/>
       <c r="S2" s="2" t="s">
         <v>68</v>
       </c>
@@ -1523,7 +1528,7 @@
       <c r="F3">
         <v>785</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="43">
         <v>14.8</v>
       </c>
       <c r="H3" s="10">
@@ -1596,7 +1601,7 @@
       <c r="F4">
         <v>728</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="43">
         <v>0</v>
       </c>
       <c r="H4" s="10">
@@ -1669,7 +1674,7 @@
       <c r="F5">
         <v>788</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="43">
         <v>0</v>
       </c>
       <c r="H5" s="10">
@@ -1724,7 +1729,7 @@
       <c r="F6">
         <v>840</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <v>23.2</v>
       </c>
       <c r="H6" s="10">
@@ -1793,7 +1798,7 @@
       <c r="F7">
         <v>697</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="43">
         <v>0</v>
       </c>
       <c r="H7" s="10">
@@ -1866,7 +1871,7 @@
       <c r="F8">
         <v>828</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="43">
         <v>22.8</v>
       </c>
       <c r="H8" s="10">
@@ -1897,7 +1902,7 @@
       <c r="P8" s="1">
         <v>-4.6100000000000002E-2</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="5">
@@ -1908,7 +1913,7 @@
         <f t="array" ref="U8">_xlfn.PERCENTILE.INC(IF(IF(U$6=$B$3:$B$42,$D$3:$D$42,"")=$S8,$P$3:$P$42,""),0.5)</f>
         <v>-0.20600000000000002</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" t="s">
         <v>44</v>
       </c>
       <c r="X8" s="5" cm="1">
@@ -1939,7 +1944,7 @@
       <c r="F9">
         <v>765</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <v>13.2</v>
       </c>
       <c r="H9" s="10">
@@ -1990,7 +1995,7 @@
       <c r="F10">
         <v>818</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <v>18.899999999999999</v>
       </c>
       <c r="H10" s="10">
@@ -2041,7 +2046,7 @@
       <c r="F11">
         <v>721</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="43">
         <v>0</v>
       </c>
       <c r="H11" s="10">
@@ -2092,7 +2097,7 @@
       <c r="F12">
         <v>800</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="43">
         <v>14</v>
       </c>
       <c r="H12" s="10">
@@ -2143,7 +2148,7 @@
       <c r="F13">
         <v>662</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="43">
         <v>0</v>
       </c>
       <c r="H13" s="10">
@@ -2194,7 +2199,7 @@
       <c r="F14">
         <v>669</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="43">
         <v>0</v>
       </c>
       <c r="H14" s="10">
@@ -2245,7 +2250,7 @@
       <c r="F15">
         <v>810</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="43">
         <v>0</v>
       </c>
       <c r="H15" s="10">
@@ -2296,7 +2301,7 @@
       <c r="F16">
         <v>827</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="43">
         <v>21.6</v>
       </c>
       <c r="H16" s="10">
@@ -2347,7 +2352,7 @@
       <c r="F17">
         <v>756</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="43">
         <v>0</v>
       </c>
       <c r="H17" s="10">
@@ -2398,7 +2403,7 @@
       <c r="F18">
         <v>798</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <v>18.8</v>
       </c>
       <c r="H18" s="10">
@@ -2449,7 +2454,7 @@
       <c r="F19">
         <v>746</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="43">
         <v>0</v>
       </c>
       <c r="H19" s="10">
@@ -2500,7 +2505,7 @@
       <c r="F20">
         <v>739</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="43">
         <v>0</v>
       </c>
       <c r="H20" s="10">
@@ -2551,7 +2556,7 @@
       <c r="F21">
         <v>742</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="43">
         <v>0</v>
       </c>
       <c r="H21" s="10">
@@ -2602,7 +2607,7 @@
       <c r="F22">
         <v>780</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="43">
         <v>0</v>
       </c>
       <c r="H22" s="10">
@@ -2653,35 +2658,35 @@
       <c r="F23" s="13">
         <v>721</v>
       </c>
-      <c r="G23" s="46">
-        <v>0</v>
-      </c>
-      <c r="H23" s="24">
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
         <v>0.42399999999999999</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="23">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="23">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="L23" s="24">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24">
+      <c r="L23" s="23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
         <v>8.9099999999999999E-2</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" si="0"/>
         <v>7.7727952167414044E-2</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="23">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="24">
         <v>-0.16900000000000001</v>
       </c>
       <c r="Q23">
@@ -2693,50 +2698,50 @@
       <c r="A24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24">
         <v>2050</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24">
         <v>548</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24">
         <v>615</v>
       </c>
-      <c r="G24" s="47">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+      <c r="G24" s="46">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <v>0.34699999999999998</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="26">
+      <c r="I24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="25">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="49">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="25">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <f t="shared" si="0"/>
         <v>0.12226277372262774</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="25">
         <v>-0.35</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="26">
         <v>-0.29099999999999998</v>
       </c>
       <c r="Q24">
@@ -2748,50 +2753,50 @@
       <c r="A25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25">
         <v>2050</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25">
         <v>717</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25">
         <v>778</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="46">
         <v>14.8</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>0.45500000000000002</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="26">
+      <c r="I25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="25">
         <v>2.06E-2</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="25">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="L25" s="26">
-        <v>0</v>
-      </c>
-      <c r="M25" s="26">
+      <c r="L25" s="25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <f t="shared" si="0"/>
         <v>8.5076708507670851E-2</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="25">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="26">
         <v>-0.104</v>
       </c>
       <c r="Q25">
@@ -2803,50 +2808,50 @@
       <c r="A26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26">
         <v>2050</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26">
         <v>776</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26">
         <v>823</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="46">
         <v>20.100000000000001</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>0.49199999999999999</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="26">
+      <c r="I26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="25">
         <v>8.8699999999999994E-3</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="L26" s="26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="26">
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="17">
         <f t="shared" si="0"/>
         <v>6.056701030927835E-2</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="25">
         <v>-7.9500000000000001E-2</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="26">
         <v>-5.1799999999999999E-2</v>
       </c>
       <c r="Q26">
@@ -2858,50 +2863,50 @@
       <c r="A27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27">
         <v>2050</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27">
         <v>820</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27">
         <v>846</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="46">
         <v>24.4</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <v>0.52</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="26">
+      <c r="I27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="25">
         <v>3.6699999999999998E-4</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="25">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="25">
         <v>5.3300000000000005E-4</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="25">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="17">
         <f t="shared" si="0"/>
         <v>3.1707317073170732E-2</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="25">
         <v>-2.7300000000000001E-2</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="26">
         <v>-2.53E-2</v>
       </c>
       <c r="Q27">
@@ -2913,50 +2918,50 @@
       <c r="A28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28">
         <v>2050</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28">
         <v>807</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28">
         <v>838</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="46">
         <v>24</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <v>0.51200000000000001</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="26">
+      <c r="I28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="25">
         <v>5.3299999999999997E-3</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <v>1.72E-2</v>
       </c>
-      <c r="L28" s="26">
-        <v>0</v>
-      </c>
-      <c r="M28" s="26">
+      <c r="L28" s="25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="25">
         <v>2.24E-2</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="17">
         <f t="shared" si="0"/>
         <v>3.8413878562577448E-2</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="25">
         <v>-4.2700000000000002E-2</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="26">
         <v>-3.4599999999999999E-2</v>
       </c>
       <c r="Q28">
@@ -2968,50 +2973,50 @@
       <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29">
         <v>2050</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29">
         <v>652</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29">
         <v>714</v>
       </c>
-      <c r="G29" s="47">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
+      <c r="G29" s="46">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="26">
+      <c r="I29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="25">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="L29" s="26">
-        <v>0</v>
-      </c>
-      <c r="M29" s="26">
+      <c r="L29" s="25">
+        <v>0</v>
+      </c>
+      <c r="M29" s="25">
         <v>0.107</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="17">
         <f t="shared" si="0"/>
         <v>9.5092024539877307E-2</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="25">
         <v>-0.22700000000000001</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="26">
         <v>-0.17699999999999999</v>
       </c>
       <c r="Q29">
@@ -3023,50 +3028,50 @@
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>2050</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="32">
         <v>693</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="32">
         <v>757</v>
       </c>
-      <c r="G30" s="48">
-        <v>0</v>
-      </c>
-      <c r="H30" s="35">
+      <c r="G30" s="47">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
         <v>0.44</v>
       </c>
-      <c r="I30" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="35">
+      <c r="I30" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="34">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="34">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="L30" s="35">
-        <v>0</v>
-      </c>
-      <c r="M30" s="35">
+      <c r="L30" s="34">
+        <v>0</v>
+      </c>
+      <c r="M30" s="34">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="33">
         <f t="shared" si="0"/>
         <v>9.2352092352092352E-2</v>
       </c>
-      <c r="O30" s="35">
+      <c r="O30" s="34">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="35">
         <v>-0.128</v>
       </c>
       <c r="Q30">
@@ -3084,50 +3089,50 @@
       <c r="A31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31">
         <v>2050</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31">
         <v>589</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31">
         <v>650</v>
       </c>
-      <c r="G31" s="47">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26">
+      <c r="G31" s="46">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
         <v>0.374</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="26">
+      <c r="I31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="25">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="25">
         <v>0.109</v>
       </c>
-      <c r="L31" s="26">
-        <v>0</v>
-      </c>
-      <c r="M31" s="26">
+      <c r="L31" s="25">
+        <v>0</v>
+      </c>
+      <c r="M31" s="25">
         <v>0.16500000000000001</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="17">
         <f t="shared" si="0"/>
         <v>0.1035653650254669</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="25">
         <v>-0.30099999999999999</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="26">
         <v>-0.251</v>
       </c>
       <c r="Q31">
@@ -3136,53 +3141,53 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>2050</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>667</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>748</v>
       </c>
-      <c r="G32" s="49">
-        <v>0</v>
-      </c>
-      <c r="H32" s="28">
+      <c r="G32" s="48">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
         <v>0.42299999999999999</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="28">
+      <c r="I32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="27">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="L32" s="28">
-        <v>0</v>
-      </c>
-      <c r="M32" s="28">
+      <c r="L32" s="27">
+        <v>0</v>
+      </c>
+      <c r="M32" s="27">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <f t="shared" si="0"/>
         <v>0.12143928035982009</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="27">
         <v>-0.20899999999999999</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="28">
         <v>-0.13800000000000001</v>
       </c>
       <c r="Q32">
@@ -3215,7 +3220,7 @@
       <c r="F33">
         <v>761</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="43">
         <v>0</v>
       </c>
       <c r="H33" s="10">
@@ -3266,7 +3271,7 @@
       <c r="F34">
         <v>274</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="43">
         <v>0</v>
       </c>
       <c r="H34" s="10">
@@ -3317,7 +3322,7 @@
       <c r="F35">
         <v>613</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="43">
         <v>0</v>
       </c>
       <c r="H35" s="10">
@@ -3368,7 +3373,7 @@
       <c r="F36">
         <v>811</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="43">
         <v>18</v>
       </c>
       <c r="H36" s="10">
@@ -3419,7 +3424,7 @@
       <c r="F37">
         <v>637</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="43">
         <v>0</v>
       </c>
       <c r="H37" s="10">
@@ -3470,7 +3475,7 @@
       <c r="F38">
         <v>817</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="43">
         <v>0</v>
       </c>
       <c r="H38" s="10">
@@ -3521,7 +3526,7 @@
       <c r="F39">
         <v>776</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="43">
         <v>16.8</v>
       </c>
       <c r="H39" s="10">
@@ -3572,7 +3577,7 @@
       <c r="F40">
         <v>741</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="43">
         <v>0</v>
       </c>
       <c r="H40" s="10">
@@ -3623,7 +3628,7 @@
       <c r="F41">
         <v>607</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="43">
         <v>0</v>
       </c>
       <c r="H41" s="10">
@@ -3674,7 +3679,7 @@
       <c r="F42">
         <v>572</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="43">
         <v>0</v>
       </c>
       <c r="H42" s="10">
